--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Vldlr</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.384384530032102</v>
+        <v>0.409547</v>
       </c>
       <c r="H2">
-        <v>0.384384530032102</v>
+        <v>0.819094</v>
       </c>
       <c r="I2">
-        <v>0.1355104938770693</v>
+        <v>0.1092827705842408</v>
       </c>
       <c r="J2">
-        <v>0.1355104938770693</v>
+        <v>0.08560115526351157</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N2">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O2">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P2">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q2">
-        <v>0.06949700024427007</v>
+        <v>0.08276453413599999</v>
       </c>
       <c r="R2">
-        <v>0.06949700024427007</v>
+        <v>0.331058136544</v>
       </c>
       <c r="S2">
-        <v>0.004510769288667298</v>
+        <v>0.003932141638285135</v>
       </c>
       <c r="T2">
-        <v>0.004510769288667298</v>
+        <v>0.002385531269549773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.384384530032102</v>
+        <v>0.409547</v>
       </c>
       <c r="H3">
-        <v>0.384384530032102</v>
+        <v>0.819094</v>
       </c>
       <c r="I3">
-        <v>0.1355104938770693</v>
+        <v>0.1092827705842408</v>
       </c>
       <c r="J3">
-        <v>0.1355104938770693</v>
+        <v>0.08560115526351157</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N3">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O3">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P3">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q3">
-        <v>1.141772288330539</v>
+        <v>1.263277072368333</v>
       </c>
       <c r="R3">
-        <v>1.141772288330539</v>
+        <v>7.579662434209999</v>
       </c>
       <c r="S3">
-        <v>0.07410782270818098</v>
+        <v>0.06001827266722704</v>
       </c>
       <c r="T3">
-        <v>0.07410782270818098</v>
+        <v>0.05461736098135906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.384384530032102</v>
+        <v>0.409547</v>
       </c>
       <c r="H4">
-        <v>0.384384530032102</v>
+        <v>0.819094</v>
       </c>
       <c r="I4">
-        <v>0.1355104938770693</v>
+        <v>0.1092827705842408</v>
       </c>
       <c r="J4">
-        <v>0.1355104938770693</v>
+        <v>0.08560115526351157</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N4">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P4">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q4">
-        <v>0.05898463922698664</v>
+        <v>0.009241701086333333</v>
       </c>
       <c r="R4">
-        <v>0.05898463922698664</v>
+        <v>0.05545020651799999</v>
       </c>
       <c r="S4">
-        <v>0.003828454439659768</v>
+        <v>0.0004390730646830238</v>
       </c>
       <c r="T4">
-        <v>0.003828454439659768</v>
+        <v>0.0003995618501709922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.384384530032102</v>
+        <v>0.409547</v>
       </c>
       <c r="H5">
-        <v>0.384384530032102</v>
+        <v>0.819094</v>
       </c>
       <c r="I5">
-        <v>0.1355104938770693</v>
+        <v>0.1092827705842408</v>
       </c>
       <c r="J5">
-        <v>0.1355104938770693</v>
+        <v>0.08560115526351157</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N5">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O5">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P5">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q5">
-        <v>0.8175435682342418</v>
+        <v>0.002795431306333333</v>
       </c>
       <c r="R5">
-        <v>0.8175435682342418</v>
+        <v>0.016772587838</v>
       </c>
       <c r="S5">
-        <v>0.05306344744056123</v>
+        <v>0.0001328108948035257</v>
       </c>
       <c r="T5">
-        <v>0.05306344744056123</v>
+        <v>0.000120859535960994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.42857168905903</v>
+        <v>0.409547</v>
       </c>
       <c r="H6">
-        <v>1.42857168905903</v>
+        <v>0.819094</v>
       </c>
       <c r="I6">
-        <v>0.5036270713262596</v>
+        <v>0.1092827705842408</v>
       </c>
       <c r="J6">
-        <v>0.5036270713262596</v>
+        <v>0.08560115526351157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N6">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O6">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P6">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q6">
-        <v>0.2582867916541834</v>
+        <v>0.06403130829333332</v>
       </c>
       <c r="R6">
-        <v>0.2582867916541834</v>
+        <v>0.38418784976</v>
       </c>
       <c r="S6">
-        <v>0.01676435131541031</v>
+        <v>0.003042126390518421</v>
       </c>
       <c r="T6">
-        <v>0.01676435131541031</v>
+        <v>0.002768372161309988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.42857168905903</v>
+        <v>0.409547</v>
       </c>
       <c r="H7">
-        <v>1.42857168905903</v>
+        <v>0.819094</v>
       </c>
       <c r="I7">
-        <v>0.5036270713262596</v>
+        <v>0.1092827705842408</v>
       </c>
       <c r="J7">
-        <v>0.5036270713262596</v>
+        <v>0.08560115526351157</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N7">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O7">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P7">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q7">
-        <v>4.243416264241772</v>
+        <v>0.8780964124225001</v>
       </c>
       <c r="R7">
-        <v>4.243416264241772</v>
+        <v>3.512385649690001</v>
       </c>
       <c r="S7">
-        <v>0.2754229923089558</v>
+        <v>0.0417183459287237</v>
       </c>
       <c r="T7">
-        <v>0.2754229923089558</v>
+        <v>0.02530946946516077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.42857168905903</v>
+        <v>1.560549666666667</v>
       </c>
       <c r="H8">
-        <v>1.42857168905903</v>
+        <v>4.681649</v>
       </c>
       <c r="I8">
-        <v>0.5036270713262596</v>
+        <v>0.4164142118185382</v>
       </c>
       <c r="J8">
-        <v>0.5036270713262596</v>
+        <v>0.4892656556369155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N8">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O8">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P8">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q8">
-        <v>0.2192174218925942</v>
+        <v>0.3153683610373333</v>
       </c>
       <c r="R8">
-        <v>0.2192174218925942</v>
+        <v>1.892210166224</v>
       </c>
       <c r="S8">
-        <v>0.01422851649334986</v>
+        <v>0.01498314558014584</v>
       </c>
       <c r="T8">
-        <v>0.01422851649334986</v>
+        <v>0.01363484542989746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.42857168905903</v>
+        <v>1.560549666666667</v>
       </c>
       <c r="H9">
-        <v>1.42857168905903</v>
+        <v>4.681649</v>
       </c>
       <c r="I9">
-        <v>0.5036270713262596</v>
+        <v>0.4164142118185382</v>
       </c>
       <c r="J9">
-        <v>0.5036270713262596</v>
+        <v>0.4892656556369155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N9">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O9">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P9">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q9">
-        <v>3.038414673072816</v>
+        <v>4.813627286226112</v>
       </c>
       <c r="R9">
-        <v>3.038414673072816</v>
+        <v>43.322645576035</v>
       </c>
       <c r="S9">
-        <v>0.1972112112085435</v>
+        <v>0.2286953521933997</v>
       </c>
       <c r="T9">
-        <v>0.1972112112085435</v>
+        <v>0.3121733444769693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02361030084793</v>
+        <v>1.560549666666667</v>
       </c>
       <c r="H10">
-        <v>1.02361030084793</v>
+        <v>4.681649</v>
       </c>
       <c r="I10">
-        <v>0.3608624347966711</v>
+        <v>0.4164142118185382</v>
       </c>
       <c r="J10">
-        <v>0.3608624347966711</v>
+        <v>0.4892656556369155</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N10">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O10">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P10">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q10">
-        <v>0.1850694806113161</v>
+        <v>0.03521484359477778</v>
       </c>
       <c r="R10">
-        <v>0.1850694806113161</v>
+        <v>0.316933592353</v>
       </c>
       <c r="S10">
-        <v>0.01201211169513696</v>
+        <v>0.001673056632653651</v>
       </c>
       <c r="T10">
-        <v>0.01201211169513696</v>
+        <v>0.002283752946903745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.02361030084793</v>
+        <v>1.560549666666667</v>
       </c>
       <c r="H11">
-        <v>1.02361030084793</v>
+        <v>4.681649</v>
       </c>
       <c r="I11">
-        <v>0.3608624347966711</v>
+        <v>0.4164142118185382</v>
       </c>
       <c r="J11">
-        <v>0.3608624347966711</v>
+        <v>0.4892656556369155</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N11">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O11">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P11">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q11">
-        <v>3.040522664791545</v>
+        <v>0.01065179184144444</v>
       </c>
       <c r="R11">
-        <v>3.040522664791545</v>
+        <v>0.09586612657299999</v>
       </c>
       <c r="S11">
-        <v>0.1973480324277643</v>
+        <v>0.0005060664529720491</v>
       </c>
       <c r="T11">
-        <v>0.1973480324277643</v>
+        <v>0.000690789977306941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.02361030084793</v>
+        <v>1.560549666666667</v>
       </c>
       <c r="H12">
-        <v>1.02361030084793</v>
+        <v>4.681649</v>
       </c>
       <c r="I12">
-        <v>0.3608624347966711</v>
+        <v>0.4164142118185382</v>
       </c>
       <c r="J12">
-        <v>0.3608624347966711</v>
+        <v>0.4892656556369155</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N12">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O12">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P12">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q12">
-        <v>0.1570752191809072</v>
+        <v>0.2439867385511111</v>
       </c>
       <c r="R12">
-        <v>0.1570752191809072</v>
+        <v>2.19588064696</v>
       </c>
       <c r="S12">
-        <v>0.01019511737487314</v>
+        <v>0.01159180588474923</v>
       </c>
       <c r="T12">
-        <v>0.01019511737487314</v>
+        <v>0.01582302734560959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.560549666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.681649</v>
+      </c>
+      <c r="I13">
+        <v>0.4164142118185382</v>
+      </c>
+      <c r="J13">
+        <v>0.4892656556369155</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.1440675</v>
+      </c>
+      <c r="N13">
+        <v>4.288135</v>
+      </c>
+      <c r="O13">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P13">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q13">
+        <v>3.345923822435834</v>
+      </c>
+      <c r="R13">
+        <v>20.075542934615</v>
+      </c>
+      <c r="S13">
+        <v>0.1589647850746177</v>
+      </c>
+      <c r="T13">
+        <v>0.1446598954602286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1352863333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.405859</v>
+      </c>
+      <c r="I14">
+        <v>0.03609955714203694</v>
+      </c>
+      <c r="J14">
+        <v>0.04241515537178095</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.202088</v>
+      </c>
+      <c r="N14">
+        <v>0.404176</v>
+      </c>
+      <c r="O14">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P14">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q14">
+        <v>0.02733974453066667</v>
+      </c>
+      <c r="R14">
+        <v>0.164038467184</v>
+      </c>
+      <c r="S14">
+        <v>0.001298910807284444</v>
+      </c>
+      <c r="T14">
+        <v>0.001182024695002285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1352863333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.405859</v>
+      </c>
+      <c r="I15">
+        <v>0.03609955714203694</v>
+      </c>
+      <c r="J15">
+        <v>0.04241515537178095</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.253715</v>
+      </c>
+      <c r="O15">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P15">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q15">
+        <v>0.4173003906872222</v>
+      </c>
+      <c r="R15">
+        <v>3.755703516185</v>
+      </c>
+      <c r="S15">
+        <v>0.01982593461104432</v>
+      </c>
+      <c r="T15">
+        <v>0.02706276387146458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1352863333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.405859</v>
+      </c>
+      <c r="I16">
+        <v>0.03609955714203694</v>
+      </c>
+      <c r="J16">
+        <v>0.04241515537178095</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P16">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q16">
+        <v>0.003052826302555555</v>
+      </c>
+      <c r="R16">
+        <v>0.027475436723</v>
+      </c>
+      <c r="S16">
+        <v>0.0001450397267869031</v>
+      </c>
+      <c r="T16">
+        <v>0.0001979818835793557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1352863333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.405859</v>
+      </c>
+      <c r="I17">
+        <v>0.03609955714203694</v>
+      </c>
+      <c r="J17">
+        <v>0.04241515537178095</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.020477</v>
+      </c>
+      <c r="O17">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P17">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q17">
+        <v>0.0009234194158888889</v>
+      </c>
+      <c r="R17">
+        <v>0.008310774743</v>
+      </c>
+      <c r="S17">
+        <v>4.387164106851728E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.988559360170268E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1352863333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.405859</v>
+      </c>
+      <c r="I18">
+        <v>0.03609955714203694</v>
+      </c>
+      <c r="J18">
+        <v>0.04241515537178095</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.46904</v>
+      </c>
+      <c r="O18">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P18">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q18">
+        <v>0.02115156726222222</v>
+      </c>
+      <c r="R18">
+        <v>0.19036410536</v>
+      </c>
+      <c r="S18">
+        <v>0.001004910608330192</v>
+      </c>
+      <c r="T18">
+        <v>0.001371721386088911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.02361030084793</v>
-      </c>
-      <c r="H13">
-        <v>1.02361030084793</v>
-      </c>
-      <c r="I13">
-        <v>0.3608624347966711</v>
-      </c>
-      <c r="J13">
-        <v>0.3608624347966711</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.12688988333106</v>
-      </c>
-      <c r="N13">
-        <v>2.12688988333106</v>
-      </c>
-      <c r="O13">
-        <v>0.3915818319480014</v>
-      </c>
-      <c r="P13">
-        <v>0.3915818319480014</v>
-      </c>
-      <c r="Q13">
-        <v>2.177106393346925</v>
-      </c>
-      <c r="R13">
-        <v>2.177106393346925</v>
-      </c>
-      <c r="S13">
-        <v>0.1413071732988967</v>
-      </c>
-      <c r="T13">
-        <v>0.1413071732988967</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1352863333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.405859</v>
+      </c>
+      <c r="I19">
+        <v>0.03609955714203694</v>
+      </c>
+      <c r="J19">
+        <v>0.04241515537178095</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.1440675</v>
+      </c>
+      <c r="N19">
+        <v>4.288135</v>
+      </c>
+      <c r="O19">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P19">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q19">
+        <v>0.2900630304941667</v>
+      </c>
+      <c r="R19">
+        <v>1.740378182965</v>
+      </c>
+      <c r="S19">
+        <v>0.01378088974752256</v>
+      </c>
+      <c r="T19">
+        <v>0.01254077794204412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1439036666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.431711</v>
+      </c>
+      <c r="I20">
+        <v>0.03839899056900527</v>
+      </c>
+      <c r="J20">
+        <v>0.04511687344793863</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.202088</v>
+      </c>
+      <c r="N20">
+        <v>0.404176</v>
+      </c>
+      <c r="O20">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P20">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q20">
+        <v>0.02908120418933333</v>
+      </c>
+      <c r="R20">
+        <v>0.174487225136</v>
+      </c>
+      <c r="S20">
+        <v>0.001381647526662153</v>
+      </c>
+      <c r="T20">
+        <v>0.001257316119894178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1439036666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.431711</v>
+      </c>
+      <c r="I21">
+        <v>0.03839899056900527</v>
+      </c>
+      <c r="J21">
+        <v>0.04511687344793863</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N21">
+        <v>9.253715</v>
+      </c>
+      <c r="O21">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P21">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q21">
+        <v>0.4438811729294445</v>
+      </c>
+      <c r="R21">
+        <v>3.994930556365</v>
+      </c>
+      <c r="S21">
+        <v>0.02108878713264595</v>
+      </c>
+      <c r="T21">
+        <v>0.02878658069357547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1439036666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.431711</v>
+      </c>
+      <c r="I22">
+        <v>0.03839899056900527</v>
+      </c>
+      <c r="J22">
+        <v>0.04511687344793863</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P22">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q22">
+        <v>0.003247282174111111</v>
+      </c>
+      <c r="R22">
+        <v>0.029225539567</v>
+      </c>
+      <c r="S22">
+        <v>0.0001542783220056737</v>
+      </c>
+      <c r="T22">
+        <v>0.0002105927352650236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1439036666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.431711</v>
+      </c>
+      <c r="I23">
+        <v>0.03839899056900527</v>
+      </c>
+      <c r="J23">
+        <v>0.04511687344793863</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.020477</v>
+      </c>
+      <c r="O23">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P23">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q23">
+        <v>0.0009822384607777778</v>
+      </c>
+      <c r="R23">
+        <v>0.008840146146999999</v>
+      </c>
+      <c r="S23">
+        <v>4.666613291150539E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.370012615066973E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1439036666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.431711</v>
+      </c>
+      <c r="I24">
+        <v>0.03839899056900527</v>
+      </c>
+      <c r="J24">
+        <v>0.04511687344793863</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.46904</v>
+      </c>
+      <c r="O24">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P24">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q24">
+        <v>0.02249885860444445</v>
+      </c>
+      <c r="R24">
+        <v>0.20248972744</v>
+      </c>
+      <c r="S24">
+        <v>0.001068920397558846</v>
+      </c>
+      <c r="T24">
+        <v>0.001459095920775023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1439036666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.431711</v>
+      </c>
+      <c r="I25">
+        <v>0.03839899056900527</v>
+      </c>
+      <c r="J25">
+        <v>0.04511687344793863</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.1440675</v>
+      </c>
+      <c r="N25">
+        <v>4.288135</v>
+      </c>
+      <c r="O25">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P25">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q25">
+        <v>0.3085391748308334</v>
+      </c>
+      <c r="R25">
+        <v>1.851235048985</v>
+      </c>
+      <c r="S25">
+        <v>0.01465869105722114</v>
+      </c>
+      <c r="T25">
+        <v>0.01333958785227827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2338066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.70142</v>
+      </c>
+      <c r="I26">
+        <v>0.06238854225375697</v>
+      </c>
+      <c r="J26">
+        <v>0.07330338437948794</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.202088</v>
+      </c>
+      <c r="N26">
+        <v>0.404176</v>
+      </c>
+      <c r="O26">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P26">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q26">
+        <v>0.04724952165333333</v>
+      </c>
+      <c r="R26">
+        <v>0.28349712992</v>
+      </c>
+      <c r="S26">
+        <v>0.002244823986767461</v>
+      </c>
+      <c r="T26">
+        <v>0.002042817238421478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.2338066666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.70142</v>
+      </c>
+      <c r="I27">
+        <v>0.06238854225375697</v>
+      </c>
+      <c r="J27">
+        <v>0.07330338437948794</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N27">
+        <v>9.253715</v>
+      </c>
+      <c r="O27">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P27">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q27">
+        <v>0.7211934194777778</v>
+      </c>
+      <c r="R27">
+        <v>6.4907407753</v>
+      </c>
+      <c r="S27">
+        <v>0.03426388734727752</v>
+      </c>
+      <c r="T27">
+        <v>0.04677083379873968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.2338066666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.70142</v>
+      </c>
+      <c r="I28">
+        <v>0.06238854225375697</v>
+      </c>
+      <c r="J28">
+        <v>0.07330338437948794</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P28">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q28">
+        <v>0.005276003304444444</v>
+      </c>
+      <c r="R28">
+        <v>0.04748402974</v>
+      </c>
+      <c r="S28">
+        <v>0.0002506628291176728</v>
+      </c>
+      <c r="T28">
+        <v>0.0003421593528300017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.2338066666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.70142</v>
+      </c>
+      <c r="I29">
+        <v>0.06238854225375697</v>
+      </c>
+      <c r="J29">
+        <v>0.07330338437948794</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.020477</v>
+      </c>
+      <c r="O29">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P29">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q29">
+        <v>0.001595886371111111</v>
+      </c>
+      <c r="R29">
+        <v>0.01436297734</v>
+      </c>
+      <c r="S29">
+        <v>7.582053491059554E-05</v>
+      </c>
+      <c r="T29">
+        <v>0.0001034964188649415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.2338066666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.70142</v>
+      </c>
+      <c r="I30">
+        <v>0.06238854225375697</v>
+      </c>
+      <c r="J30">
+        <v>0.07330338437948794</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.46904</v>
+      </c>
+      <c r="O30">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P30">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q30">
+        <v>0.03655489297777778</v>
+      </c>
+      <c r="R30">
+        <v>0.3289940368000001</v>
+      </c>
+      <c r="S30">
+        <v>0.001736722356520278</v>
+      </c>
+      <c r="T30">
+        <v>0.002370657826068866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.2338066666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.70142</v>
+      </c>
+      <c r="I31">
+        <v>0.06238854225375697</v>
+      </c>
+      <c r="J31">
+        <v>0.07330338437948794</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1440675</v>
+      </c>
+      <c r="N31">
+        <v>4.288135</v>
+      </c>
+      <c r="O31">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P31">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q31">
+        <v>0.5012972752833335</v>
+      </c>
+      <c r="R31">
+        <v>3.007783651700001</v>
+      </c>
+      <c r="S31">
+        <v>0.02381662519916345</v>
+      </c>
+      <c r="T31">
+        <v>0.02167341974456298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.2644965</v>
+      </c>
+      <c r="H32">
+        <v>2.528993</v>
+      </c>
+      <c r="I32">
+        <v>0.3374159276324219</v>
+      </c>
+      <c r="J32">
+        <v>0.2642977759003654</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.202088</v>
+      </c>
+      <c r="N32">
+        <v>0.404176</v>
+      </c>
+      <c r="O32">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P32">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q32">
+        <v>0.255539568692</v>
+      </c>
+      <c r="R32">
+        <v>1.022158274768</v>
+      </c>
+      <c r="S32">
+        <v>0.01214068065232029</v>
+      </c>
+      <c r="T32">
+        <v>0.007365445091738542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.2644965</v>
+      </c>
+      <c r="H33">
+        <v>2.528993</v>
+      </c>
+      <c r="I33">
+        <v>0.3374159276324219</v>
+      </c>
+      <c r="J33">
+        <v>0.2642977759003654</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N33">
+        <v>9.253715</v>
+      </c>
+      <c r="O33">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P33">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q33">
+        <v>3.900430076499167</v>
+      </c>
+      <c r="R33">
+        <v>23.402580458995</v>
+      </c>
+      <c r="S33">
+        <v>0.1853093679693765</v>
+      </c>
+      <c r="T33">
+        <v>0.1686337875754556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.2644965</v>
+      </c>
+      <c r="H34">
+        <v>2.528993</v>
+      </c>
+      <c r="I34">
+        <v>0.3374159276324219</v>
+      </c>
+      <c r="J34">
+        <v>0.2642977759003654</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N34">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P34">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q34">
+        <v>0.02853420652016666</v>
+      </c>
+      <c r="R34">
+        <v>0.171205239121</v>
+      </c>
+      <c r="S34">
+        <v>0.001355659676510772</v>
+      </c>
+      <c r="T34">
+        <v>0.001233666858931317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.2644965</v>
+      </c>
+      <c r="H35">
+        <v>2.528993</v>
+      </c>
+      <c r="I35">
+        <v>0.3374159276324219</v>
+      </c>
+      <c r="J35">
+        <v>0.2642977759003654</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.020477</v>
+      </c>
+      <c r="O35">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P35">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q35">
+        <v>0.008631031610166666</v>
+      </c>
+      <c r="R35">
+        <v>0.05178618966099999</v>
+      </c>
+      <c r="S35">
+        <v>0.0004100601680415836</v>
+      </c>
+      <c r="T35">
+        <v>0.0003731597599647928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.2644965</v>
+      </c>
+      <c r="H36">
+        <v>2.528993</v>
+      </c>
+      <c r="I36">
+        <v>0.3374159276324219</v>
+      </c>
+      <c r="J36">
+        <v>0.2642977759003654</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.46904</v>
+      </c>
+      <c r="O36">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P36">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q36">
+        <v>0.1976998127866667</v>
+      </c>
+      <c r="R36">
+        <v>1.18619887672</v>
+      </c>
+      <c r="S36">
+        <v>0.009392714812629993</v>
+      </c>
+      <c r="T36">
+        <v>0.008547485169404036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.2644965</v>
+      </c>
+      <c r="H37">
+        <v>2.528993</v>
+      </c>
+      <c r="I37">
+        <v>0.3374159276324219</v>
+      </c>
+      <c r="J37">
+        <v>0.2642977759003654</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1440675</v>
+      </c>
+      <c r="N37">
+        <v>4.288135</v>
+      </c>
+      <c r="O37">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P37">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q37">
+        <v>2.71116584951375</v>
+      </c>
+      <c r="R37">
+        <v>10.844663398055</v>
+      </c>
+      <c r="S37">
+        <v>0.1288074443535427</v>
+      </c>
+      <c r="T37">
+        <v>0.07814423144487119</v>
       </c>
     </row>
   </sheetData>
